--- a/Projects/New Project/RunReport.xlsx
+++ b/Projects/New Project/RunReport.xlsx
@@ -462,7 +462,7 @@
     <t>Heating</t>
   </si>
   <si>
-    <t>2022-12-08 15:48:12.704189-08:00 US Pacific Time</t>
+    <t>2022-12-08 16:17:47.070273-08:00 US Pacific Time</t>
   </si>
 </sst>
 </file>
